--- a/data/blank.xlsx
+++ b/data/blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebTTCNTT\wp-content\plugins\dlu-tracuuvanbang\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D7EAD8-A2D5-48E5-A2AA-1CE80BB6A056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFF394A-197B-4753-BD7F-F88D71B02DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="2115" windowWidth="18000" windowHeight="9360" xr2:uid="{FD369ADB-2576-4068-A78C-EC60C6010003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{FD369ADB-2576-4068-A78C-EC60C6010003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Họ tên</t>
   </si>
@@ -67,63 +67,6 @@
   </si>
   <si>
     <t>Số hiệu bằng</t>
-  </si>
-  <si>
-    <t>La Quốc Thắng</t>
-  </si>
-  <si>
-    <t>Đồng Nai</t>
-  </si>
-  <si>
-    <t>1610207@dlu.edu.vn</t>
-  </si>
-  <si>
-    <t>TDL1001</t>
-  </si>
-  <si>
-    <t>0987610260</t>
-  </si>
-  <si>
-    <t>Phan Quốc Trung</t>
-  </si>
-  <si>
-    <t>Hứa Đình Doanh</t>
-  </si>
-  <si>
-    <t>Nguyễn Thành Quốc</t>
-  </si>
-  <si>
-    <t>Trần Trọng Hiệp</t>
-  </si>
-  <si>
-    <t>Phan Trung Tính</t>
-  </si>
-  <si>
-    <t>Hoàng Nhật Nam</t>
-  </si>
-  <si>
-    <t>13/8/2020</t>
-  </si>
-  <si>
-    <t>15/12/1999</t>
-  </si>
-  <si>
-    <t>15/9/1999</t>
-  </si>
-  <si>
-    <t>28/5/1998</t>
-  </si>
-  <si>
-    <t>14/9/1998</t>
-  </si>
-  <si>
-    <t>Bình Định</t>
-  </si>
-  <si>
-    <t>Lâm Đồng</t>
-  </si>
-  <si>
-    <t>Đà Nẵng</t>
   </si>
 </sst>
 </file>
@@ -133,18 +76,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,24 +92,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,29 +109,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,257 +436,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D55F830-D440-4492-84B5-249DECDC5915}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="14">
-        <v>35922</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="8">
-        <v>272658325</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="8">
-        <v>1001</v>
-      </c>
-      <c r="K2" s="8">
-        <v>10</v>
-      </c>
-      <c r="L2" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="14">
-        <v>36010</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="14">
-        <v>36018</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9"/>
-      <c r="F9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10"/>
-      <c r="F10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11"/>
-      <c r="F11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12"/>
-      <c r="F12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-      <c r="F13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14"/>
-      <c r="F14"/>
-      <c r="H14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="mailto:1610207@dlu.edu.vn" xr:uid="{1258A1BF-3C48-4398-9760-F4782EF24D71}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>